--- a/Data/Social_Data/Mortality_Rate/1_IMR.xlsx
+++ b/Data/Social_Data/Mortality_Rate/1_IMR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ambika/Documents/Final_Project_V2/Social_Data/Mortality_Rate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ambika/Documents/Final_Project_V2/Data/Social_Data/Mortality_Rate/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -904,10 +904,10 @@
   <dimension ref="A1:AK57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
